--- a/src/trackAR/availity/AvailiyClaimStatusAmbetterHealth.xlsx
+++ b/src/trackAR/availity/AvailiyClaimStatusAmbetterHealth.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\playwright-projects\src\trackAR\availity\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\playwright-projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5AFCE6B-92C7-4B7B-938E-DAC48E069CAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16A90853-5471-47B6-AB1C-499207F0EF77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{9136871B-EE07-4CA6-86DC-6B4D06A42874}"/>
   </bookViews>
@@ -36,21 +36,525 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="174">
   <si>
     <t>MemberId</t>
   </si>
   <si>
+    <t>UZ054456202</t>
+  </si>
+  <si>
+    <t>UZ085106101</t>
+  </si>
+  <si>
+    <t>UZ037152501</t>
+  </si>
+  <si>
+    <t>U9897839601</t>
+  </si>
+  <si>
+    <t>U9450098802</t>
+  </si>
+  <si>
+    <t>U9507642602</t>
+  </si>
+  <si>
+    <t>U9270934101</t>
+  </si>
+  <si>
+    <t>U9664005401</t>
+  </si>
+  <si>
+    <t>U9830969701</t>
+  </si>
+  <si>
+    <t>UZ012338301</t>
+  </si>
+  <si>
+    <t>U9599505602</t>
+  </si>
+  <si>
+    <t>UZ107393501</t>
+  </si>
+  <si>
+    <t>U9546748601</t>
+  </si>
+  <si>
+    <t>U9756253401</t>
+  </si>
+  <si>
+    <t>UZ000354101</t>
+  </si>
+  <si>
+    <t>U9368947002</t>
+  </si>
+  <si>
+    <t>U9694784201</t>
+  </si>
+  <si>
+    <t>U9538028001</t>
+  </si>
+  <si>
+    <t>U9909486001</t>
+  </si>
+  <si>
+    <t>U9810496101</t>
+  </si>
+  <si>
+    <t>U9791277101</t>
+  </si>
+  <si>
+    <t>U9491376801</t>
+  </si>
+  <si>
+    <t>UZ0852901</t>
+  </si>
+  <si>
+    <t>U9813935102</t>
+  </si>
+  <si>
+    <t>U9879164601</t>
+  </si>
+  <si>
+    <t>u9750739401</t>
+  </si>
+  <si>
+    <t>U9814786701</t>
+  </si>
+  <si>
+    <t>U9830072301</t>
+  </si>
+  <si>
+    <t>UZ078795401</t>
+  </si>
+  <si>
+    <t>U9492660502</t>
+  </si>
+  <si>
+    <t>UZ130604301</t>
+  </si>
+  <si>
+    <t>UZ086891801</t>
+  </si>
+  <si>
+    <t>UZ143902001</t>
+  </si>
+  <si>
+    <t>UZ031317001</t>
+  </si>
+  <si>
+    <t>U9867970501</t>
+  </si>
+  <si>
+    <t>U9870086001</t>
+  </si>
+  <si>
+    <t>U9193239001</t>
+  </si>
+  <si>
+    <t>U9731443301</t>
+  </si>
+  <si>
+    <t>7464854667</t>
+  </si>
+  <si>
+    <t>UZ004156601</t>
+  </si>
+  <si>
+    <t>Uz040094902</t>
+  </si>
+  <si>
+    <t>U9079271701</t>
+  </si>
+  <si>
+    <t>U9852613001</t>
+  </si>
+  <si>
+    <t>U9796572401</t>
+  </si>
+  <si>
+    <t>uz041984102</t>
+  </si>
+  <si>
+    <t>UZ042961201</t>
+  </si>
+  <si>
+    <t>U9467599906</t>
+  </si>
+  <si>
+    <t>U9492661001</t>
+  </si>
+  <si>
+    <t>u9409266801</t>
+  </si>
+  <si>
+    <t>UZ043007601</t>
+  </si>
+  <si>
+    <t>U9879095401</t>
+  </si>
+  <si>
+    <t>U9881664601</t>
+  </si>
+  <si>
+    <t>UZ110452201</t>
+  </si>
+  <si>
+    <t>U9643487101</t>
+  </si>
+  <si>
+    <t>UZ042307501</t>
+  </si>
+  <si>
+    <t>UZ081873201</t>
+  </si>
+  <si>
+    <t>u9669823501</t>
+  </si>
+  <si>
+    <t>41093559</t>
+  </si>
+  <si>
+    <t>U9432220102</t>
+  </si>
+  <si>
+    <t>U9375605201</t>
+  </si>
+  <si>
+    <t>U9822040101</t>
+  </si>
+  <si>
+    <t>U9563897601</t>
+  </si>
+  <si>
+    <t>UZ107670701</t>
+  </si>
+  <si>
+    <t>U9817094402</t>
+  </si>
+  <si>
+    <t>U9046575701</t>
+  </si>
+  <si>
+    <t>U9873776001</t>
+  </si>
+  <si>
+    <t>U9776463101</t>
+  </si>
+  <si>
+    <t>U9697919101</t>
+  </si>
+  <si>
+    <t>U9724678301</t>
+  </si>
+  <si>
+    <t>U9714253103</t>
+  </si>
+  <si>
+    <t>U9661316401</t>
+  </si>
+  <si>
+    <t>UZ047241501</t>
+  </si>
+  <si>
+    <t>UZ117611501</t>
+  </si>
+  <si>
+    <t>U9782753801</t>
+  </si>
+  <si>
+    <t>7658423459</t>
+  </si>
+  <si>
+    <t>U99023750</t>
+  </si>
+  <si>
     <t>U9841507501</t>
   </si>
   <si>
+    <t>UZ133325801</t>
+  </si>
+  <si>
+    <t>U9846013101</t>
+  </si>
+  <si>
+    <t>U9409304501</t>
+  </si>
+  <si>
+    <t>UZ086886701</t>
+  </si>
+  <si>
+    <t>U9785430401</t>
+  </si>
+  <si>
+    <t>U99122911</t>
+  </si>
+  <si>
+    <t>uz133952001</t>
+  </si>
+  <si>
+    <t>UZ142164301</t>
+  </si>
+  <si>
     <t>DateOfService</t>
   </si>
   <si>
     <t>PatientName</t>
   </si>
   <si>
+    <t>Mendoza Avila De Tun, Katherine</t>
+  </si>
+  <si>
+    <t>Barajas, Hector</t>
+  </si>
+  <si>
+    <t>Harms, Raymond</t>
+  </si>
+  <si>
+    <t>Decius, Marguerite</t>
+  </si>
+  <si>
+    <t>Murphy, Robert, A</t>
+  </si>
+  <si>
+    <t>Rivera, Keren</t>
+  </si>
+  <si>
+    <t>Murphy, Shawn, M</t>
+  </si>
+  <si>
+    <t>German, Corey</t>
+  </si>
+  <si>
+    <t>Anderson, Brian, Lee</t>
+  </si>
+  <si>
+    <t>Carter, Billie</t>
+  </si>
+  <si>
+    <t>Miller, Merrill, G</t>
+  </si>
+  <si>
+    <t>Vargas Acuna, Jennifer</t>
+  </si>
+  <si>
+    <t>Dupont, Robert</t>
+  </si>
+  <si>
+    <t>Smith, Tonya</t>
+  </si>
+  <si>
+    <t>Crawford, Cornelius</t>
+  </si>
+  <si>
+    <t>Moeckel, Scot, A</t>
+  </si>
+  <si>
+    <t>Saleh, Eman</t>
+  </si>
+  <si>
+    <t>Briones, Verna</t>
+  </si>
+  <si>
+    <t>Suggs, Lenora</t>
+  </si>
+  <si>
+    <t>Harding, Christopher</t>
+  </si>
+  <si>
+    <t>Morris, Julie, M</t>
+  </si>
+  <si>
+    <t>Reeves, Charles</t>
+  </si>
+  <si>
+    <t>FRAZIER, STEVEN, C</t>
+  </si>
+  <si>
+    <t>Wehr, David</t>
+  </si>
+  <si>
+    <t>Niedermeier, Ryan</t>
+  </si>
+  <si>
+    <t>Robertson, Nichelle</t>
+  </si>
+  <si>
+    <t>Socarras Vazquez, Idalmi Salvadora</t>
+  </si>
+  <si>
+    <t>Parker, Brenda</t>
+  </si>
+  <si>
+    <t>Stewart, Lamechie, A</t>
+  </si>
+  <si>
+    <t>Carmer Jr, Kenneth</t>
+  </si>
+  <si>
+    <t>Brown, Benjamin, A</t>
+  </si>
+  <si>
+    <t>ROFFE, PAUL</t>
+  </si>
+  <si>
+    <t>Morales, Stephany</t>
+  </si>
+  <si>
+    <t>BARTELL, CAROLYN ANN</t>
+  </si>
+  <si>
+    <t>Joinvil, Guylene</t>
+  </si>
+  <si>
+    <t>Westlake, Morgan</t>
+  </si>
+  <si>
+    <t>Serri, Andrew, M</t>
+  </si>
+  <si>
+    <t>Thinn, Anthony</t>
+  </si>
+  <si>
+    <t>Sandoval, Esther</t>
+  </si>
+  <si>
+    <t>McNeill, Richard</t>
+  </si>
+  <si>
+    <t>James, Leon, T</t>
+  </si>
+  <si>
+    <t>Balboa, Alexander</t>
+  </si>
+  <si>
+    <t>Willingham, Rebecca Lynn</t>
+  </si>
+  <si>
+    <t>MELLINGER, MICHAEL A</t>
+  </si>
+  <si>
+    <t>Ranogajec Popadikj, Irena</t>
+  </si>
+  <si>
+    <t>Whitlock, Ozella</t>
+  </si>
+  <si>
+    <t>Acevedo, Nelson</t>
+  </si>
+  <si>
+    <t>Padilla, Jose</t>
+  </si>
+  <si>
+    <t>Moye, Kimberly, A</t>
+  </si>
+  <si>
+    <t>Washington, Harriet</t>
+  </si>
+  <si>
+    <t>Defeo, Nancy</t>
+  </si>
+  <si>
+    <t>Pico Lantigua, Elian</t>
+  </si>
+  <si>
+    <t>Lopatinsky, Tiffany</t>
+  </si>
+  <si>
+    <t>Valerio, Annabel</t>
+  </si>
+  <si>
+    <t>Wondergem, Thomas</t>
+  </si>
+  <si>
+    <t>Kopp, James, D</t>
+  </si>
+  <si>
+    <t>South, Linda</t>
+  </si>
+  <si>
+    <t>Wilkinson, Carol, A</t>
+  </si>
+  <si>
+    <t>Sotelo Balboa, Gerardo</t>
+  </si>
+  <si>
+    <t>YOUNG, ANDREW EUGENE</t>
+  </si>
+  <si>
+    <t>SAVITSKY, SUSANNAH, C</t>
+  </si>
+  <si>
+    <t>Villalobos, Cristian, E</t>
+  </si>
+  <si>
+    <t>LIEBECK, CHRISTOPHER</t>
+  </si>
+  <si>
+    <t>Watt, James</t>
+  </si>
+  <si>
+    <t>Torres, Lidian</t>
+  </si>
+  <si>
+    <t>Defilippi De Taboada, Jose</t>
+  </si>
+  <si>
+    <t>Butts, Michael</t>
+  </si>
+  <si>
+    <t>Edwards, Betty</t>
+  </si>
+  <si>
+    <t>Campbell, Regina, T</t>
+  </si>
+  <si>
+    <t>Nesmith, Jarquell</t>
+  </si>
+  <si>
+    <t>Hirst, Michael</t>
+  </si>
+  <si>
+    <t>CHARLEUS, MARIE</t>
+  </si>
+  <si>
+    <t>Marshall, Deborah, L</t>
+  </si>
+  <si>
+    <t>WOOD, RAYMOND</t>
+  </si>
+  <si>
+    <t>Potts, George, T</t>
+  </si>
+  <si>
+    <t>Perez, Pablo, Gary</t>
+  </si>
+  <si>
     <t>Perrin, Mark</t>
+  </si>
+  <si>
+    <t>COLLIER, MITZI CHARLINE</t>
+  </si>
+  <si>
+    <t>Werbelow, Mark</t>
+  </si>
+  <si>
+    <t>Garcia, Antonio</t>
+  </si>
+  <si>
+    <t>Patino-Osorio, Jesus, J</t>
+  </si>
+  <si>
+    <t>Gimenez, Yesenia</t>
+  </si>
+  <si>
+    <t>Frantz, Lawrence</t>
+  </si>
+  <si>
+    <t>Ostrowski, Barbara, A</t>
+  </si>
+  <si>
+    <t>Speer, Brian</t>
   </si>
   <si>
     <t>PatientDOB</t>
@@ -60,6 +564,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -89,9 +596,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -426,10 +934,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36338A94-EF98-49BD-9A46-32176ED5FAE0}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -445,13 +953,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>86</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>87</v>
       </c>
       <c r="D1" t="s">
-        <v>5</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -459,16 +967,1755 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
+        <v>45687</v>
+      </c>
+      <c r="C2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="1">
+        <v>36839</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D3" s="1">
+        <v>17116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="1">
+        <v>46014</v>
+      </c>
+      <c r="C4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D4" s="1">
+        <v>17545</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="1">
+        <v>45957</v>
+      </c>
+      <c r="C5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D5" s="1">
+        <v>25231</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="1">
+        <v>45944</v>
+      </c>
+      <c r="C6" t="s">
+        <v>162</v>
+      </c>
+      <c r="D6" s="1">
+        <v>25231</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" s="1">
+        <v>45962</v>
+      </c>
+      <c r="C7" t="s">
+        <v>162</v>
+      </c>
+      <c r="D7" s="1">
+        <v>25231</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="1">
+        <v>45946</v>
+      </c>
+      <c r="C8" t="s">
+        <v>162</v>
+      </c>
+      <c r="D8" s="1">
+        <v>25231</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" s="1">
+        <v>45945</v>
+      </c>
+      <c r="C9" t="s">
+        <v>162</v>
+      </c>
+      <c r="D9" s="1">
+        <v>25231</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" s="1">
+        <v>45954</v>
+      </c>
+      <c r="C10" t="s">
+        <v>162</v>
+      </c>
+      <c r="D10" s="1">
+        <v>25231</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="1">
+        <v>46020</v>
+      </c>
+      <c r="C11" t="s">
+        <v>152</v>
+      </c>
+      <c r="D11" s="1">
+        <v>23828</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="1">
+        <v>46014</v>
+      </c>
+      <c r="C12" t="s">
+        <v>129</v>
+      </c>
+      <c r="D12" s="1">
+        <v>28604</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="1">
+        <v>46012</v>
+      </c>
+      <c r="C13" t="s">
+        <v>124</v>
+      </c>
+      <c r="D13" s="1">
+        <v>22593</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="1">
+        <v>45805</v>
+      </c>
+      <c r="C14" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" s="1">
+        <v>28331</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="1">
+        <v>45812</v>
+      </c>
+      <c r="C15" t="s">
+        <v>103</v>
+      </c>
+      <c r="D15" s="1">
+        <v>23543</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="1">
+        <v>45798</v>
+      </c>
+      <c r="C16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D16" s="1">
+        <v>23543</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
+        <v>45826</v>
+      </c>
+      <c r="C17" t="s">
+        <v>103</v>
+      </c>
+      <c r="D17" s="1">
+        <v>23543</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1">
+        <v>45854</v>
+      </c>
+      <c r="C18" t="s">
+        <v>103</v>
+      </c>
+      <c r="D18" s="1">
+        <v>23543</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="1">
+        <v>45993</v>
+      </c>
+      <c r="C19" t="s">
+        <v>147</v>
+      </c>
+      <c r="D19" s="1">
+        <v>23959</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="1">
+        <v>45873</v>
+      </c>
+      <c r="C20" t="s">
+        <v>136</v>
+      </c>
+      <c r="D20" s="1">
+        <v>27829</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="1">
+        <v>45813</v>
+      </c>
+      <c r="C21" t="s">
+        <v>136</v>
+      </c>
+      <c r="D21" s="1">
+        <v>27829</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="1">
+        <v>45936</v>
+      </c>
+      <c r="C22" t="s">
+        <v>136</v>
+      </c>
+      <c r="D22" s="1">
+        <v>27829</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>80</v>
+      </c>
+      <c r="B23" s="1">
+        <v>45929</v>
+      </c>
+      <c r="C23" t="s">
+        <v>167</v>
+      </c>
+      <c r="D23" s="1">
+        <v>23865</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" s="1">
+        <v>45741</v>
+      </c>
+      <c r="C24" t="s">
+        <v>146</v>
+      </c>
+      <c r="D24" s="1">
+        <v>24205</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="1">
+        <v>45953</v>
+      </c>
+      <c r="C25" t="s">
+        <v>92</v>
+      </c>
+      <c r="D25" s="1">
+        <v>23555</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="1">
+        <v>45873</v>
+      </c>
+      <c r="C26" t="s">
+        <v>134</v>
+      </c>
+      <c r="D26" s="1">
+        <v>23944</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="1">
+        <v>45835</v>
+      </c>
+      <c r="C27" t="s">
+        <v>109</v>
+      </c>
+      <c r="D27" s="1">
+        <v>23692</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="1">
+        <v>45821</v>
+      </c>
+      <c r="C28" t="s">
+        <v>109</v>
+      </c>
+      <c r="D28" s="1">
+        <v>23692</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="1">
+        <v>46008</v>
+      </c>
+      <c r="C29" t="s">
+        <v>117</v>
+      </c>
+      <c r="D29" s="1">
+        <v>25734</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" s="1">
+        <v>45882</v>
+      </c>
+      <c r="C30" t="s">
+        <v>135</v>
+      </c>
+      <c r="D30" s="1">
+        <v>31522</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" s="1">
+        <v>45884</v>
+      </c>
+      <c r="C31" t="s">
+        <v>93</v>
+      </c>
+      <c r="D31" s="1">
+        <v>28327</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32" s="1">
+        <v>45833</v>
+      </c>
+      <c r="C32" t="s">
+        <v>105</v>
+      </c>
+      <c r="D32" s="1">
+        <v>25510</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>18</v>
+      </c>
+      <c r="B33" s="1">
+        <v>45896</v>
+      </c>
+      <c r="C33" t="s">
+        <v>105</v>
+      </c>
+      <c r="D33" s="1">
+        <v>25510</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" s="1">
+        <v>45644</v>
+      </c>
+      <c r="C34" t="s">
+        <v>100</v>
+      </c>
+      <c r="D34" s="1">
+        <v>26438</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>62</v>
+      </c>
+      <c r="B35" s="1">
+        <v>46021</v>
+      </c>
+      <c r="C35" t="s">
+        <v>149</v>
+      </c>
+      <c r="D35" s="1">
+        <v>34795</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" s="1">
+        <v>45855</v>
+      </c>
+      <c r="C36" t="s">
+        <v>98</v>
+      </c>
+      <c r="D36" s="1">
+        <v>22932</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>54</v>
+      </c>
+      <c r="B37" s="1">
+        <v>45855</v>
+      </c>
+      <c r="C37" t="s">
+        <v>141</v>
+      </c>
+      <c r="D37" s="1">
+        <v>27934</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>71</v>
+      </c>
+      <c r="B38" s="1">
+        <v>45918</v>
+      </c>
+      <c r="C38" t="s">
+        <v>158</v>
+      </c>
+      <c r="D38" s="1">
+        <v>22848</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" s="1">
+        <v>45891</v>
+      </c>
+      <c r="C39" t="s">
+        <v>95</v>
+      </c>
+      <c r="D39" s="1">
+        <v>29227</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" s="1">
+        <v>45892</v>
+      </c>
+      <c r="C40" t="s">
+        <v>95</v>
+      </c>
+      <c r="D40" s="1">
+        <v>29227</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>57</v>
+      </c>
+      <c r="B41" s="1">
+        <v>45852</v>
+      </c>
+      <c r="C41" t="s">
+        <v>144</v>
+      </c>
+      <c r="D41" s="1">
+        <v>25671</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>57</v>
+      </c>
+      <c r="B42" s="1">
+        <v>45943</v>
+      </c>
+      <c r="C42" t="s">
+        <v>144</v>
+      </c>
+      <c r="D42" s="1">
+        <v>25671</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>17</v>
+      </c>
+      <c r="B43" s="1">
+        <v>45672</v>
+      </c>
+      <c r="C43" t="s">
+        <v>104</v>
+      </c>
+      <c r="D43" s="1">
+        <v>23705</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>17</v>
+      </c>
+      <c r="B44" s="1">
+        <v>46002</v>
+      </c>
+      <c r="C44" t="s">
+        <v>104</v>
+      </c>
+      <c r="D44" s="1">
+        <v>23705</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>68</v>
+      </c>
+      <c r="B45" s="1">
+        <v>45896</v>
+      </c>
+      <c r="C45" t="s">
+        <v>155</v>
+      </c>
+      <c r="D45" s="1">
+        <v>23198</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>68</v>
+      </c>
+      <c r="B46" s="1">
+        <v>45958</v>
+      </c>
+      <c r="C46" t="s">
+        <v>155</v>
+      </c>
+      <c r="D46" s="1">
+        <v>23198</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>70</v>
+      </c>
+      <c r="B47" s="1">
+        <v>45932</v>
+      </c>
+      <c r="C47" t="s">
+        <v>157</v>
+      </c>
+      <c r="D47" s="1">
+        <v>39149</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>70</v>
+      </c>
+      <c r="B48" s="1">
+        <v>45931</v>
+      </c>
+      <c r="C48" t="s">
+        <v>157</v>
+      </c>
+      <c r="D48" s="1">
+        <v>39149</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>69</v>
+      </c>
+      <c r="B49" s="1">
+        <v>45925</v>
+      </c>
+      <c r="C49" t="s">
+        <v>156</v>
+      </c>
+      <c r="D49" s="1">
+        <v>26152</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>38</v>
+      </c>
+      <c r="B50" s="1">
+        <v>46020</v>
+      </c>
+      <c r="C50" t="s">
+        <v>125</v>
+      </c>
+      <c r="D50" s="1">
+        <v>25382</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>26</v>
+      </c>
+      <c r="B51" s="1">
+        <v>45799</v>
+      </c>
+      <c r="C51" t="s">
+        <v>113</v>
+      </c>
+      <c r="D51" s="1">
+        <v>26961</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>26</v>
+      </c>
+      <c r="B52" s="1">
+        <v>45713</v>
+      </c>
+      <c r="C52" t="s">
+        <v>113</v>
+      </c>
+      <c r="D52" s="1">
+        <v>26961</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B53" s="1">
+        <v>45727</v>
+      </c>
+      <c r="C53" t="s">
+        <v>101</v>
+      </c>
+      <c r="D53" s="1">
+        <v>25654</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>14</v>
+      </c>
+      <c r="B54" s="1">
+        <v>45733</v>
+      </c>
+      <c r="C54" t="s">
+        <v>101</v>
+      </c>
+      <c r="D54" s="1">
+        <v>25654</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>67</v>
+      </c>
+      <c r="B55" s="1">
+        <v>45884</v>
+      </c>
+      <c r="C55" t="s">
+        <v>154</v>
+      </c>
+      <c r="D55" s="1">
+        <v>22996</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>74</v>
+      </c>
+      <c r="B56" s="1">
+        <v>45951</v>
+      </c>
+      <c r="C56" t="s">
+        <v>161</v>
+      </c>
+      <c r="D56" s="1">
+        <v>25513</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>82</v>
+      </c>
+      <c r="B57" s="1">
+        <v>45967</v>
+      </c>
+      <c r="C57" t="s">
+        <v>169</v>
+      </c>
+      <c r="D57" s="1">
+        <v>33930</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>21</v>
+      </c>
+      <c r="B58" s="1">
+        <v>45784</v>
+      </c>
+      <c r="C58" t="s">
+        <v>108</v>
+      </c>
+      <c r="D58" s="1">
+        <v>23908</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>44</v>
+      </c>
+      <c r="B59" s="1">
+        <v>45999</v>
+      </c>
+      <c r="C59" t="s">
+        <v>131</v>
+      </c>
+      <c r="D59" s="1">
+        <v>32076</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>20</v>
+      </c>
+      <c r="B60" s="1">
+        <v>45735</v>
+      </c>
+      <c r="C60" t="s">
+        <v>107</v>
+      </c>
+      <c r="D60" s="1">
+        <v>26961</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>24</v>
+      </c>
+      <c r="B61" s="1">
+        <v>45614</v>
+      </c>
+      <c r="C61" t="s">
+        <v>111</v>
+      </c>
+      <c r="D61" s="1">
+        <v>22349</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>27</v>
+      </c>
+      <c r="B62" s="1">
+        <v>45791</v>
+      </c>
+      <c r="C62" t="s">
+        <v>114</v>
+      </c>
+      <c r="D62" s="1">
+        <v>23229</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>64</v>
+      </c>
+      <c r="B63" s="1">
+        <v>45935</v>
+      </c>
+      <c r="C63" t="s">
+        <v>151</v>
+      </c>
+      <c r="D63" s="1">
+        <v>29708</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>61</v>
+      </c>
+      <c r="B64" s="1">
+        <v>45993</v>
+      </c>
+      <c r="C64" t="s">
+        <v>148</v>
+      </c>
+      <c r="D64" s="1">
+        <v>25260</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>28</v>
+      </c>
+      <c r="B65" s="1">
+        <v>45748</v>
+      </c>
+      <c r="C65" t="s">
+        <v>115</v>
+      </c>
+      <c r="D65" s="1">
+        <v>22346</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>9</v>
+      </c>
+      <c r="B66" s="1">
+        <v>45645</v>
+      </c>
+      <c r="C66" t="s">
+        <v>96</v>
+      </c>
+      <c r="D66" s="1">
+        <v>22381</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>77</v>
+      </c>
+      <c r="B67" s="1">
         <v>45608</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C67" t="s">
+        <v>164</v>
+      </c>
+      <c r="D67" s="1">
+        <v>23998</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>79</v>
+      </c>
+      <c r="B68" s="1">
+        <v>45975</v>
+      </c>
+      <c r="C68" t="s">
+        <v>166</v>
+      </c>
+      <c r="D68" s="1">
+        <v>24591</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>43</v>
+      </c>
+      <c r="B69" s="1">
+        <v>45901</v>
+      </c>
+      <c r="C69" t="s">
+        <v>130</v>
+      </c>
+      <c r="D69" s="1">
+        <v>24320</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>35</v>
+      </c>
+      <c r="B70" s="1">
+        <v>46020</v>
+      </c>
+      <c r="C70" t="s">
+        <v>122</v>
+      </c>
+      <c r="D70" s="1">
+        <v>22384</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>36</v>
+      </c>
+      <c r="B71" s="1">
+        <v>46009</v>
+      </c>
+      <c r="C71" t="s">
+        <v>123</v>
+      </c>
+      <c r="D71" s="1">
+        <v>29949</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>66</v>
+      </c>
+      <c r="B72" s="1">
+        <v>45938</v>
+      </c>
+      <c r="C72" t="s">
+        <v>153</v>
+      </c>
+      <c r="D72" s="1">
+        <v>23333</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>51</v>
+      </c>
+      <c r="B73" s="1">
+        <v>45888</v>
+      </c>
+      <c r="C73" t="s">
+        <v>138</v>
+      </c>
+      <c r="D73" s="1">
+        <v>27361</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>25</v>
+      </c>
+      <c r="B74" s="1">
+        <v>45644</v>
+      </c>
+      <c r="C74" t="s">
+        <v>112</v>
+      </c>
+      <c r="D74" s="1">
+        <v>29809</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>52</v>
+      </c>
+      <c r="B75" s="1">
+        <v>45826</v>
+      </c>
+      <c r="C75" t="s">
+        <v>139</v>
+      </c>
+      <c r="D75" s="1">
+        <v>36073</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1">
-        <v>23998</v>
+      <c r="B76" s="1">
+        <v>46014</v>
+      </c>
+      <c r="C76" t="s">
+        <v>91</v>
+      </c>
+      <c r="D76" s="1">
+        <v>18702</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>76</v>
+      </c>
+      <c r="B77" s="1">
+        <v>45939</v>
+      </c>
+      <c r="C77" t="s">
+        <v>163</v>
+      </c>
+      <c r="D77" s="1">
+        <v>30412</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>76</v>
+      </c>
+      <c r="B78" s="1">
+        <v>45941</v>
+      </c>
+      <c r="C78" t="s">
+        <v>163</v>
+      </c>
+      <c r="D78" s="1">
+        <v>30412</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>76</v>
+      </c>
+      <c r="B79" s="1">
+        <v>45936</v>
+      </c>
+      <c r="C79" t="s">
+        <v>163</v>
+      </c>
+      <c r="D79" s="1">
+        <v>30412</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>76</v>
+      </c>
+      <c r="B80" s="1">
+        <v>45934</v>
+      </c>
+      <c r="C80" t="s">
+        <v>163</v>
+      </c>
+      <c r="D80" s="1">
+        <v>30412</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>76</v>
+      </c>
+      <c r="B81" s="1">
+        <v>45983</v>
+      </c>
+      <c r="C81" t="s">
+        <v>163</v>
+      </c>
+      <c r="D81" s="1">
+        <v>30412</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>76</v>
+      </c>
+      <c r="B82" s="1">
+        <v>45951</v>
+      </c>
+      <c r="C82" t="s">
+        <v>163</v>
+      </c>
+      <c r="D82" s="1">
+        <v>30412</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>76</v>
+      </c>
+      <c r="B83" s="1">
+        <v>45986</v>
+      </c>
+      <c r="C83" t="s">
+        <v>163</v>
+      </c>
+      <c r="D83" s="1">
+        <v>30412</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>19</v>
+      </c>
+      <c r="B84" s="1">
+        <v>45705</v>
+      </c>
+      <c r="C84" t="s">
+        <v>106</v>
+      </c>
+      <c r="D84" s="1">
+        <v>24511</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>83</v>
+      </c>
+      <c r="B85" s="1">
+        <v>46006</v>
+      </c>
+      <c r="C85" t="s">
+        <v>170</v>
+      </c>
+      <c r="D85" s="1">
+        <v>22740</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>15</v>
+      </c>
+      <c r="B86" s="1">
+        <v>45716</v>
+      </c>
+      <c r="C86" t="s">
+        <v>102</v>
+      </c>
+      <c r="D86" s="1">
+        <v>25137</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>40</v>
+      </c>
+      <c r="B87" s="1">
+        <v>46008</v>
+      </c>
+      <c r="C87" t="s">
+        <v>127</v>
+      </c>
+      <c r="D87" s="1">
+        <v>23923</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>10</v>
+      </c>
+      <c r="B88" s="1">
+        <v>45904</v>
+      </c>
+      <c r="C88" t="s">
+        <v>97</v>
+      </c>
+      <c r="D88" s="1">
+        <v>26704</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>34</v>
+      </c>
+      <c r="B89" s="1">
+        <v>46008</v>
+      </c>
+      <c r="C89" t="s">
+        <v>121</v>
+      </c>
+      <c r="D89" s="1">
+        <v>24800</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>3</v>
+      </c>
+      <c r="B90" s="1">
+        <v>45852</v>
+      </c>
+      <c r="C90" t="s">
+        <v>90</v>
+      </c>
+      <c r="D90" s="1">
+        <v>23724</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>3</v>
+      </c>
+      <c r="B91" s="1">
+        <v>45883</v>
+      </c>
+      <c r="C91" t="s">
+        <v>90</v>
+      </c>
+      <c r="D91" s="1">
+        <v>23724</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>3</v>
+      </c>
+      <c r="B92" s="1">
+        <v>45771</v>
+      </c>
+      <c r="C92" t="s">
+        <v>90</v>
+      </c>
+      <c r="D92" s="1">
+        <v>23724</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>3</v>
+      </c>
+      <c r="B93" s="1">
+        <v>45846</v>
+      </c>
+      <c r="C93" t="s">
+        <v>90</v>
+      </c>
+      <c r="D93" s="1">
+        <v>23724</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>41</v>
+      </c>
+      <c r="B94" s="1">
+        <v>46009</v>
+      </c>
+      <c r="C94" t="s">
+        <v>128</v>
+      </c>
+      <c r="D94" s="1">
+        <v>24981</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>41</v>
+      </c>
+      <c r="B95" s="1">
+        <v>45869</v>
+      </c>
+      <c r="C95" t="s">
+        <v>128</v>
+      </c>
+      <c r="D95" s="1">
+        <v>24981</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>41</v>
+      </c>
+      <c r="B96" s="1">
+        <v>45939</v>
+      </c>
+      <c r="C96" t="s">
+        <v>128</v>
+      </c>
+      <c r="D96" s="1">
+        <v>24981</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>45</v>
+      </c>
+      <c r="B97" s="1">
+        <v>45889</v>
+      </c>
+      <c r="C97" t="s">
+        <v>132</v>
+      </c>
+      <c r="D97" s="1">
+        <v>30806</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>55</v>
+      </c>
+      <c r="B98" s="1">
+        <v>45846</v>
+      </c>
+      <c r="C98" t="s">
+        <v>142</v>
+      </c>
+      <c r="D98" s="1">
+        <v>30148</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>46</v>
+      </c>
+      <c r="B99" s="1">
+        <v>45894</v>
+      </c>
+      <c r="C99" t="s">
+        <v>133</v>
+      </c>
+      <c r="D99" s="1">
+        <v>28120</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>46</v>
+      </c>
+      <c r="B100" s="1">
+        <v>46020</v>
+      </c>
+      <c r="C100" t="s">
+        <v>133</v>
+      </c>
+      <c r="D100" s="1">
+        <v>28120</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>50</v>
+      </c>
+      <c r="B101" s="1">
+        <v>45890</v>
+      </c>
+      <c r="C101" t="s">
+        <v>137</v>
+      </c>
+      <c r="D101" s="1">
+        <v>29218</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>50</v>
+      </c>
+      <c r="B102" s="1">
+        <v>45904</v>
+      </c>
+      <c r="C102" t="s">
+        <v>137</v>
+      </c>
+      <c r="D102" s="1">
+        <v>29218</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>50</v>
+      </c>
+      <c r="B103" s="1">
+        <v>45985</v>
+      </c>
+      <c r="C103" t="s">
+        <v>137</v>
+      </c>
+      <c r="D103" s="1">
+        <v>29218</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>72</v>
+      </c>
+      <c r="B104" s="1">
+        <v>45917</v>
+      </c>
+      <c r="C104" t="s">
+        <v>159</v>
+      </c>
+      <c r="D104" s="1">
+        <v>32864</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>72</v>
+      </c>
+      <c r="B105" s="1">
+        <v>45915</v>
+      </c>
+      <c r="C105" t="s">
+        <v>159</v>
+      </c>
+      <c r="D105" s="1">
+        <v>32864</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>29</v>
+      </c>
+      <c r="B106" s="1">
+        <v>46017</v>
+      </c>
+      <c r="C106" t="s">
+        <v>116</v>
+      </c>
+      <c r="D106" s="1">
+        <v>31633</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>56</v>
+      </c>
+      <c r="B107" s="1">
+        <v>45845</v>
+      </c>
+      <c r="C107" t="s">
+        <v>143</v>
+      </c>
+      <c r="D107" s="1">
+        <v>23851</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>56</v>
+      </c>
+      <c r="B108" s="1">
+        <v>45936</v>
+      </c>
+      <c r="C108" t="s">
+        <v>143</v>
+      </c>
+      <c r="D108" s="1">
+        <v>23851</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>2</v>
+      </c>
+      <c r="B109" s="1">
+        <v>45967</v>
+      </c>
+      <c r="C109" t="s">
+        <v>89</v>
+      </c>
+      <c r="D109" s="2">
+        <v>31839</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>2</v>
+      </c>
+      <c r="B110" s="1">
+        <v>46009</v>
+      </c>
+      <c r="C110" t="s">
+        <v>89</v>
+      </c>
+      <c r="D110" s="1">
+        <v>31839</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>2</v>
+      </c>
+      <c r="B111" s="1">
+        <v>45897</v>
+      </c>
+      <c r="C111" t="s">
+        <v>89</v>
+      </c>
+      <c r="D111" s="1">
+        <v>31839</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>23</v>
+      </c>
+      <c r="B112" s="1">
+        <v>45855</v>
+      </c>
+      <c r="C112" t="s">
+        <v>110</v>
+      </c>
+      <c r="D112" s="1">
+        <v>29836</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>81</v>
+      </c>
+      <c r="B113" s="1">
+        <v>45617</v>
+      </c>
+      <c r="C113" t="s">
+        <v>168</v>
+      </c>
+      <c r="D113" s="1">
+        <v>26354</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>32</v>
+      </c>
+      <c r="B114" s="1">
+        <v>46000</v>
+      </c>
+      <c r="C114" t="s">
+        <v>119</v>
+      </c>
+      <c r="D114" s="1">
+        <v>24286</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>12</v>
+      </c>
+      <c r="B115" s="1">
+        <v>45875</v>
+      </c>
+      <c r="C115" t="s">
+        <v>99</v>
+      </c>
+      <c r="D115" s="1">
+        <v>38607</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>12</v>
+      </c>
+      <c r="B116" s="1">
+        <v>45845</v>
+      </c>
+      <c r="C116" t="s">
+        <v>99</v>
+      </c>
+      <c r="D116" s="1">
+        <v>38607</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>63</v>
+      </c>
+      <c r="B117" s="1">
+        <v>45953</v>
+      </c>
+      <c r="C117" t="s">
+        <v>150</v>
+      </c>
+      <c r="D117" s="1">
+        <v>26988</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>63</v>
+      </c>
+      <c r="B118" s="1">
+        <v>45951</v>
+      </c>
+      <c r="C118" t="s">
+        <v>150</v>
+      </c>
+      <c r="D118" s="1">
+        <v>26988</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>53</v>
+      </c>
+      <c r="B119" s="1">
+        <v>45821</v>
+      </c>
+      <c r="C119" t="s">
+        <v>140</v>
+      </c>
+      <c r="D119" s="1">
+        <v>29662</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>73</v>
+      </c>
+      <c r="B120" s="1">
+        <v>45974</v>
+      </c>
+      <c r="C120" t="s">
+        <v>160</v>
+      </c>
+      <c r="D120" s="1">
+        <v>22260</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>31</v>
+      </c>
+      <c r="B121" s="1">
+        <v>46014</v>
+      </c>
+      <c r="C121" t="s">
+        <v>118</v>
+      </c>
+      <c r="D121" s="1">
+        <v>22539</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>78</v>
+      </c>
+      <c r="B122" s="1">
+        <v>45987</v>
+      </c>
+      <c r="C122" t="s">
+        <v>165</v>
+      </c>
+      <c r="D122" s="1">
+        <v>24411</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>78</v>
+      </c>
+      <c r="B123" s="1">
+        <v>45986</v>
+      </c>
+      <c r="C123" t="s">
+        <v>165</v>
+      </c>
+      <c r="D123" s="1">
+        <v>24411</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>84</v>
+      </c>
+      <c r="B124" s="1">
+        <v>45999</v>
+      </c>
+      <c r="C124" t="s">
+        <v>171</v>
+      </c>
+      <c r="D124" s="1">
+        <v>28756</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>85</v>
+      </c>
+      <c r="B125" s="1">
+        <v>45993</v>
+      </c>
+      <c r="C125" t="s">
+        <v>172</v>
+      </c>
+      <c r="D125" s="1">
+        <v>23071</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>33</v>
+      </c>
+      <c r="B126" s="1">
+        <v>46008</v>
+      </c>
+      <c r="C126" t="s">
+        <v>120</v>
+      </c>
+      <c r="D126" s="1">
+        <v>37594</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:D126">
+    <sortCondition ref="A2:A126"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>